--- a/csvs/Hackers_TEPS_lesson1.xlsx
+++ b/csvs/Hackers_TEPS_lesson1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\...And more\Random_Projects\English_Words\csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA698D3-2E76-478E-8059-B3BD5BC043D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B145483-BD0F-498E-9359-179BF05E55E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{41B66A3C-6882-42CE-BC5E-5E9B745F1FB7}"/>
   </bookViews>
@@ -273,188 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Many city residents c_______ by subway every day.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can you p____ me __ from my office after work?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sales of air conditioners p_______ during the summer.</t>
-  </si>
-  <si>
-    <t>Young children p_______ a foreign language faster than adults do.</t>
-  </si>
-  <si>
-    <t>I went to the library to d______ Stacey.</t>
-  </si>
-  <si>
-    <t>The bus driver chose a different r______ to avoid delays caused by roadwork.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kayla took a d_______ on her way home from work to pick up Chinese food.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The traffic cop signaled the man at the wheel to p__________.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Simon paid a f_____ for parking in a handicapped zone.</t>
-  </si>
-  <si>
-    <t>The police officer f_____ the pedestrian for littering.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The sand on the beach is very f____.</t>
-  </si>
-  <si>
-    <t>I parked my car at the curb immediately when I n________ that I had a flat tire.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Children m____________ aimlessly around the football field.</t>
-  </si>
-  <si>
-    <t>The fisherman n__________ the sea with a compass.</t>
-  </si>
-  <si>
-    <t>This highway d_________ into two narrow roads in three kilometers.</t>
-  </si>
-  <si>
-    <t>The businessman h________ a taxi in the heavy rain.</t>
-  </si>
-  <si>
-    <t>Hundreds of cheering people h______ the pop star arrival.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The light was still red when a motorcyclist j___________.</t>
-  </si>
-  <si>
-    <t>We t__________ to another bus to get to City Hall.</t>
-  </si>
-  <si>
-    <t>The manager was t___________ to another branch in Chicago.</t>
-  </si>
-  <si>
-    <t>Which d_______ is the bank?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The tourists c__________ a boat to go across the bay.</t>
-  </si>
-  <si>
-    <t>Using a Fast Pass to get through the tollgate is c__________.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The express lane is d__________ for vehicles with six or more passengers.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The chauffeur slowly parked the limousine by the c_____.</t>
-  </si>
-  <si>
-    <t>India has been implementing a family planning policy to c___ population growth.</t>
-  </si>
-  <si>
-    <t>People avoid taking cabs because of the increasing taxi f____.</t>
-  </si>
-  <si>
-    <t>Nick took the side road to b_____ the accident on the freeway.</t>
-  </si>
-  <si>
-    <t>The auto dealership employees get a c________ for every car they sell.</t>
-  </si>
-  <si>
-    <t>The train to Chicago r____ every 30 minutes.</t>
-  </si>
-  <si>
-    <t>Airbags are designed to c________ the impact from a crash.</t>
-  </si>
-  <si>
-    <t>The protest in the street blocked traffic and created p__________.</t>
-  </si>
-  <si>
-    <t>The taxi driver suddenly v_______ into the left lane without warning.</t>
-  </si>
-  <si>
-    <t>Subways are c______ during rush hour.</t>
-  </si>
-  <si>
-    <t>The woman was shocked to see a car coming from the o______ direction.</t>
-  </si>
-  <si>
-    <t>An accident i__________ traffic flow on a main highway.</t>
-  </si>
-  <si>
-    <t>The cars m__________ for the ambulance by pulling to the side of the road.</t>
-  </si>
-  <si>
-    <t>Could I b______ your tire pump for a couple of days?</t>
-  </si>
-  <si>
-    <t>The mall is l________ at the intersection of Pines Road and University Drive.</t>
-  </si>
-  <si>
-    <t>The detective l______ his clients long-lost cousin in Mexico.</t>
-  </si>
-  <si>
-    <t>The principal r________ taking a school bus instead of Walking to School.</t>
-  </si>
-  <si>
-    <t>It took two hours to reach our d__________ by bike.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You can d_________ the No Parking restriction from 9 P.M. to 6 A.M. on Maple Street.</t>
-  </si>
-  <si>
-    <t>This plane is b______ for Manhattan.</t>
-  </si>
-  <si>
-    <t>Our team is b_______ to win if we stay focused on the match.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of cars in New York is increasing r_________. </t>
-  </si>
-  <si>
-    <t>The company uses trucks to t_______ goods to retail stores.</t>
-  </si>
-  <si>
-    <t>6Many people in my city take the train to c______ to work</t>
-  </si>
-  <si>
-    <t>The tour group will c________ a bus to take them to a temple in the city.</t>
-  </si>
-  <si>
-    <t>The driver had to p__________ because he felt sick.</t>
-  </si>
-  <si>
-    <t>Long flights can be exhausting because of the dry air and c_________ space.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The stadium entrance was j__________ with people lining up for the show.</t>
-  </si>
-  <si>
-    <t>We decided to b_______ the city center by going around a ring road</t>
-  </si>
-  <si>
-    <t>The waiter r________ a bottle of wine to go with our meal.</t>
-  </si>
-  <si>
-    <t>The road was blocked off to m____________ for the holiday parade.</t>
-  </si>
-  <si>
-    <t>The crew worked r_________ to finish construction by the deadline</t>
-  </si>
-  <si>
     <t>그 여자는 반대 방향에서 오는 차를 보고 깜짝 놀랐다</t>
   </si>
   <si>
@@ -665,9 +483,6 @@
     <t>v.  (장소쉼표 통로를) 막다쉼표메우다</t>
   </si>
   <si>
-    <t>The traffic on the bridge was j_______쉼표 forcing vehicles to turn back.</t>
-  </si>
-  <si>
     <t>n. 우회쉼표 우회 도로</t>
   </si>
   <si>
@@ -677,9 +492,6 @@
     <t>v. 알아차리다쉼표인지하다</t>
   </si>
   <si>
-    <t>After skidding across the icy road surface쉼표 the car c__________ through a gate.</t>
-  </si>
-  <si>
     <t>v. 항해하다쉼표 비행하다</t>
   </si>
   <si>
@@ -707,9 +519,6 @@
     <t>adj. 복잡한쉼표 뒤얽힌</t>
   </si>
   <si>
-    <t>Since the route to the bus terminal is c__________쉼표 it’s best to take a taxi.</t>
-  </si>
-  <si>
     <t>버스 터미널로 가는 길이 복잡하기 때문에쉼표 택시를 타는 것이 가장 끓다.</t>
   </si>
   <si>
@@ -746,25 +555,266 @@
     <t>v. (항공기쉼표 배를) 전세내다</t>
   </si>
   <si>
-    <t>Finding a r________ while driving is now much easier쉼표 thanks to modern technology</t>
-  </si>
-  <si>
     <t>현대 기술 덕분에쉼표 운전 중에 길을 찾는 것은 지금이 훨씬 쉽습니다</t>
   </si>
   <si>
-    <t>I don따옴표t like long and tiring c_________.</t>
-  </si>
-  <si>
-    <t>Today따옴표s bus trip will take the scenic route쉼표 which m_________ along the coastline.</t>
-  </si>
-  <si>
-    <t>Hold on a second and I따옴표ll t_________ you</t>
-  </si>
-  <si>
-    <t>Mr. Smith m________ his boat so it wouldn따옴표t drift away from the dock.</t>
-  </si>
-  <si>
     <t>v. (항공기쉼표배를) 전세내다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Many city residents _ by subway every day.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don따옴표t like long and tiring _.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can you _ me _ from my office after work?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales of air conditioners _ during the summer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Young children _ a foreign language faster than adults do.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I went to the library to _ Stacey.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The bus driver chose a different _ to avoid delays caused by roadwork.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The traffic on the bridge was _쉼표 forcing vehicles to turn back.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kayla took a _ on her way home from work to pick up Chinese food.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The traffic cop signaled the man at the wheel to _.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon paid a _ for parking in a handicapped zone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The police officer _ the pedestrian for littering.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The sand on the beach is very _.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I parked my car at the curb immediately when I _ that I had a flat tire.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Today따옴표s bus trip will take the scenic route쉼표 which _ along the coastline.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Children _ aimlessly around the football field.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After skidding across the icy road surface쉼표 the car _ through a gate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The fisherman _ the sea with a compass.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This highway _ into two narrow roads in three kilometers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The businessman _ a taxi in the heavy rain.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hundreds of cheering people _ the pop star arrival.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The light was still red when a motorcyclist _.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We _ to another bus to get to City Hall.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The manager was _ to another branch in Chicago.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold on a second and I따옴표ll _ you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which _ is the bank?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The tourists _ a boat to go across the bay.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using a Fast Pass to get through the tollgate is _.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The express lane is _ for vehicles with six or more passengers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The chauffeur slowly parked the limousine by the _.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>India has been implementing a family planning policy to _ population growth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>People avoid taking cabs because of the increasing taxi _.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nick took the side road to _ the accident on the freeway.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The auto dealership employees get a _ for every car they sell.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mr. Smith _ his boat so it wouldn따옴표t drift away from the dock.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The train to Chicago _ every 30 minutes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Airbags are designed to _ the impact from a crash.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The protest in the street blocked traffic and created _.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Since the route to the bus terminal is _쉼표 it’s best to take a taxi.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The taxi driver suddenly _ into the left lane without warning.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subways are _ during rush hour.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The woman was shocked to see a car coming from the _ direction.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An accident _ traffic flow on a main highway.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The cars _ for the ambulance by pulling to the side of the road.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Could I _ your tire pump for a couple of days?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The mall is _ at the intersection of Pines Road and University Drive.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The detective _ his clients long-lost cousin in Mexico.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The principal _ taking a school bus instead of Walking to School.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It took two hours to reach our _ by bike.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can _ the No Parking restriction from 9 P.M. to 6 A.M. on Maple Street.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This plane is _ for Manhattan.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our team is _ to win if we stay focused on the match.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of cars in New York is increasing _. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The company uses trucks to _ goods to retail stores.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6Many people in my city take the train to _ to work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The tour group will _ a bus to take them to a temple in the city.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finding a _ while driving is now much easier쉼표 thanks to modern technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The driver had to _ because he felt sick.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long flights can be exhausting because of the dry air and _ space.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The stadium entrance was _ with people lining up for the show.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We decided to _ the city center by going around a ring road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The waiter _ a bottle of wine to go with our meal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The road was blocked off to _ for the holiday parade.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The crew worked _ to finish construction by the deadline</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1137,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6132E5-C42A-46D2-9152-AA4873B57F2E}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="D38" zoomScale="82" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E38" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1152,41 +1202,41 @@
     <col min="7" max="7" width="25.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
@@ -1197,16 +1247,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -1217,16 +1267,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>2</v>
@@ -1237,16 +1287,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>2</v>
@@ -1260,13 +1310,13 @@
         <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>3</v>
@@ -1277,36 +1327,36 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>5</v>
@@ -1317,16 +1367,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>6</v>
@@ -1340,13 +1390,13 @@
         <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>7</v>
@@ -1357,16 +1407,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>8</v>
@@ -1377,16 +1427,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>9</v>
@@ -1397,16 +1447,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>8</v>
@@ -1417,16 +1467,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>10</v>
@@ -1440,13 +1490,13 @@
         <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1460,13 +1510,13 @@
         <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>12</v>
@@ -1480,13 +1530,13 @@
         <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
@@ -1497,16 +1547,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>14</v>
@@ -1517,16 +1567,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>15</v>
@@ -1540,13 +1590,13 @@
         <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>16</v>
@@ -1560,13 +1610,13 @@
         <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>16</v>
@@ -1577,16 +1627,16 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>17</v>
@@ -1597,16 +1647,16 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>18</v>
@@ -1617,16 +1667,16 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>18</v>
@@ -1637,16 +1687,16 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>19</v>
@@ -1660,13 +1710,13 @@
         <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>20</v>
@@ -1677,16 +1727,16 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>21</v>
@@ -1700,13 +1750,13 @@
         <v>54</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>22</v>
@@ -1720,53 +1770,53 @@
         <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>24</v>
@@ -1777,16 +1827,16 @@
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>25</v>
@@ -1797,16 +1847,16 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>26</v>
@@ -1820,13 +1870,13 @@
         <v>56</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>27</v>
@@ -1840,13 +1890,13 @@
         <v>57</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>28</v>
@@ -1860,13 +1910,13 @@
         <v>58</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>29</v>
@@ -1877,16 +1927,16 @@
         <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>30</v>
@@ -1900,13 +1950,13 @@
         <v>59</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>31</v>
@@ -1917,16 +1967,16 @@
         <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>32</v>
@@ -1940,13 +1990,13 @@
         <v>60</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>33</v>
@@ -1957,16 +2007,16 @@
         <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>34</v>
@@ -1977,16 +2027,16 @@
         <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>35</v>
@@ -1997,36 +2047,36 @@
         <v>36</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>37</v>
@@ -2040,53 +2090,53 @@
         <v>61</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>39</v>
@@ -2100,13 +2150,13 @@
         <v>62</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>40</v>
@@ -2117,16 +2167,16 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>41</v>
@@ -2137,16 +2187,16 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>42</v>
@@ -2157,16 +2207,16 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>43</v>
@@ -2177,16 +2227,16 @@
         <v>43</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>43</v>
@@ -2197,16 +2247,16 @@
         <v>44</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>44</v>
@@ -2217,36 +2267,36 @@
         <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>0</v>
@@ -2257,16 +2307,16 @@
         <v>46</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>46</v>
@@ -2277,16 +2327,16 @@
         <v>4</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>4</v>
@@ -2300,13 +2350,13 @@
         <v>63</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>7</v>
@@ -2317,36 +2367,36 @@
         <v>34</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>5</v>
@@ -2357,16 +2407,16 @@
         <v>26</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>26</v>
@@ -2380,33 +2430,33 @@
         <v>62</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>47</v>
@@ -2417,16 +2467,16 @@
         <v>44</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>44</v>
